--- a/Design/proto_conv/卡牌配置表.xlsx
+++ b/Design/proto_conv/卡牌配置表.xlsx
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卡牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,7 +241,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自身属性</t>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,10 +615,10 @@
   <dimension ref="A1:BF1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -631,8 +631,8 @@
     <col min="6" max="7" width="10.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="2" customWidth="1"/>
-    <col min="10" max="11" width="8.625" style="2" customWidth="1"/>
-    <col min="12" max="17" width="9.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="2" customWidth="1"/>
+    <col min="11" max="17" width="9.625" style="2" customWidth="1"/>
     <col min="18" max="19" width="5.25" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="33" width="5.25" style="2" customWidth="1"/>
     <col min="34" max="34" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -669,46 +669,46 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>0</v>
@@ -717,94 +717,94 @@
         <v>1</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="AA1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="AH1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AI1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AQ1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AW1" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AX1" s="3" t="s">
         <v>3</v>
@@ -813,25 +813,25 @@
         <v>4</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BA1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -861,10 +861,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
